--- a/Others/기획서/시스템 기획서_0717.xlsx
+++ b/Others/기획서/시스템 기획서_0717.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="272">
   <si>
     <t>시스템 특징</t>
   </si>
@@ -342,6 +342,9 @@
     <t>보스 방이나 스토리 상으로 중요한 구역에 들어가기 전 저장하시겠습니까? 메시지 표시</t>
   </si>
   <si>
+    <t>번호</t>
+  </si>
+  <si>
     <t>이름</t>
   </si>
   <si>
@@ -384,7 +387,7 @@
     <t>희귀</t>
   </si>
   <si>
-    <t>오오라 내의 적 하나에게 일정 시간마다 임의의 적에게 데미지와 경직을 주는 번개를 만든다.</t>
+    <t>오오라 내의 적 하나에게 1초 마다 임의의 적에게 데미지와 경직을 주는 번개를 만든다.</t>
   </si>
   <si>
     <t>경직 1초</t>
@@ -810,10 +813,10 @@
     <t>몬스터의 GameObject 형태</t>
   </si>
   <si>
-    <t>MONSTER_STATE</t>
-  </si>
-  <si>
-    <t>전역 Enum 변수이다.</t>
+    <t>STATE_MONSTER</t>
+  </si>
+  <si>
+    <t>몬스터의 STATE를 정의한 전역 Enum 변수이다.</t>
   </si>
   <si>
     <t>가지고 있는 변수</t>
@@ -850,6 +853,12 @@
   </si>
   <si>
     <t>boss1</t>
+  </si>
+  <si>
+    <t>STATE_PLAYER</t>
+  </si>
+  <si>
+    <t>플레이어의 STATE를 정의한 전역 Enum 변수이다.</t>
   </si>
 </sst>
 </file>
@@ -916,7 +925,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,6 +948,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCC1DA"/>
         <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FFB7DEE8"/>
       </patternFill>
     </fill>
     <fill>
@@ -1009,7 +1024,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1054,6 +1069,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1070,15 +1089,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1134,7 +1153,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFAC090"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -1161,8 +1180,8 @@
   </sheetPr>
   <dimension ref="B1:M123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C80" activeCellId="1" sqref="B33:I38 C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1771,75 +1790,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:P10"/>
+  <dimension ref="B1:Q10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="B33:I38 E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.25352112676056"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" hidden="false" max="11" min="3" style="0" width="8.67136150234742"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.2676056338028"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.8450704225352"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.67136150234742"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.4178403755869"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.67136150234742"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.42253521126761"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20"/>
+    <col collapsed="false" hidden="false" max="12" min="4" style="0" width="8.67136150234742"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="39.2676056338028"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.8450704225352"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="8.67136150234742"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.4178403755869"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.67136150234742"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="7" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-      <c r="M2" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="K2" s="10"/>
+      <c r="N2" s="0" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1847,21 +1873,24 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="P3" s="11" t="n">
+      <c r="M3" s="10"/>
+      <c r="Q3" s="12" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>107</v>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="D4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1869,21 +1898,24 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="P4" s="11" t="n">
+      <c r="M4" s="10"/>
+      <c r="Q4" s="12" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>109</v>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="D5" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1891,21 +1923,24 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="P5" s="11" t="n">
+      <c r="M5" s="10"/>
+      <c r="Q5" s="12" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>111</v>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1913,24 +1948,27 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="P6" s="0" t="s">
+      <c r="M6" s="10"/>
+      <c r="N6" s="0" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8" t="s">
+      <c r="Q6" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="10" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="D7" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1938,21 +1976,24 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="P7" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="s">
+      <c r="M7" s="10"/>
+      <c r="Q7" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="10" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="D8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1960,21 +2001,24 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="M8" s="10"/>
+      <c r="N8" s="0" t="s">
         <v>122</v>
       </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="C9" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="D9" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1982,18 +2026,21 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>124</v>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2001,22 +2048,23 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="0" t="s">
-        <v>127</v>
+      <c r="M10" s="10"/>
+      <c r="N10" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E10:M10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2036,7 +2084,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="B33:I38 E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2062,148 +2110,148 @@
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="12" t="s">
         <v>131</v>
       </c>
+      <c r="D3" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="E3" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0"/>
       <c r="C9" s="0"/>
       <c r="D9" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
       <c r="D11" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2276,7 @@
   <dimension ref="B1:Q62"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="1" sqref="B33:I38 H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2243,27 +2291,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2283,10 +2331,10 @@
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>40</v>
@@ -2298,15 +2346,15 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150</v>
@@ -2318,15 +2366,15 @@
         <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>30</v>
@@ -2338,12 +2386,12 @@
         <v>10</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>12</v>
@@ -2351,35 +2399,35 @@
       <c r="D6" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>173</v>
+      <c r="E6" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>500</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G8" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2399,77 +2447,77 @@
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G20" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2489,133 +2537,133 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G32" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G33" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G34" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G38" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2635,183 +2683,183 @@
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G55" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G56" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G59" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G60" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G61" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G62" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +2887,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="1" sqref="B33:I38 C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2852,19 +2900,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,7 +2928,7 @@
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="14" t="n">
         <f aca="false">IF(D2="","",SUM(E1,D2))</f>
         <v>0</v>
       </c>
@@ -2898,7 +2946,7 @@
       <c r="D3" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="14" t="n">
         <f aca="false">IF(D3="","",SUM(E2,D3))</f>
         <v>20</v>
       </c>
@@ -2919,7 +2967,7 @@
         <f aca="false">D3+(D3-D2)+20</f>
         <v>60</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="14" t="n">
         <f aca="false">IF(D4="","",SUM(E3,D4))</f>
         <v>80</v>
       </c>
@@ -2940,7 +2988,7 @@
         <f aca="false">D4+(D4-D3)+20</f>
         <v>120</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="14" t="n">
         <f aca="false">IF(D5="","",SUM(E4,D5))</f>
         <v>200</v>
       </c>
@@ -2961,7 +3009,7 @@
         <f aca="false">D5+(D5-D4)+20</f>
         <v>200</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="14" t="n">
         <f aca="false">IF(D6="","",SUM(E5,D6))</f>
         <v>400</v>
       </c>
@@ -2982,7 +3030,7 @@
         <f aca="false">D6+(D6-D5)+20</f>
         <v>300</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="14" t="n">
         <f aca="false">IF(D7="","",SUM(E6,D7))</f>
         <v>700</v>
       </c>
@@ -3003,7 +3051,7 @@
         <f aca="false">D7+(D7-D6)+20</f>
         <v>420</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="14" t="n">
         <f aca="false">IF(D8="","",SUM(E7,D8))</f>
         <v>1120</v>
       </c>
@@ -3024,7 +3072,7 @@
         <f aca="false">D8+(D8-D7)+20</f>
         <v>560</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="14" t="n">
         <f aca="false">IF(D9="","",SUM(E8,D9))</f>
         <v>1680</v>
       </c>
@@ -3045,7 +3093,7 @@
         <f aca="false">D9+(D9-D8)+20</f>
         <v>720</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="14" t="n">
         <f aca="false">IF(D10="","",SUM(E9,D10))</f>
         <v>2400</v>
       </c>
@@ -3066,7 +3114,7 @@
         <f aca="false">D10+(D10-D9)+20</f>
         <v>900</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="14" t="n">
         <f aca="false">IF(D11="","",SUM(E10,D11))</f>
         <v>3300</v>
       </c>
@@ -3087,7 +3135,7 @@
         <f aca="false">D11+(D11-D10)+40</f>
         <v>1120</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="14" t="n">
         <f aca="false">IF(D12="","",SUM(E11,D12))</f>
         <v>4420</v>
       </c>
@@ -3108,7 +3156,7 @@
         <f aca="false">D12+(D12-D11)+40</f>
         <v>1380</v>
       </c>
-      <c r="E13" s="13" t="n">
+      <c r="E13" s="14" t="n">
         <f aca="false">IF(D13="","",SUM(E12,D13))</f>
         <v>5800</v>
       </c>
@@ -3129,7 +3177,7 @@
         <f aca="false">D13+(D13-D12)+40</f>
         <v>1680</v>
       </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="14" t="n">
         <f aca="false">IF(D14="","",SUM(E13,D14))</f>
         <v>7480</v>
       </c>
@@ -3150,7 +3198,7 @@
         <f aca="false">D14+(D14-D13)+40</f>
         <v>2020</v>
       </c>
-      <c r="E15" s="13" t="n">
+      <c r="E15" s="14" t="n">
         <f aca="false">IF(D15="","",SUM(E14,D15))</f>
         <v>9500</v>
       </c>
@@ -3171,7 +3219,7 @@
         <f aca="false">D15+(D15-D14)+40</f>
         <v>2400</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="14" t="n">
         <f aca="false">IF(D16="","",SUM(E15,D16))</f>
         <v>11900</v>
       </c>
@@ -3192,7 +3240,7 @@
         <f aca="false">D16+(D16-D15)+40</f>
         <v>2820</v>
       </c>
-      <c r="E17" s="13" t="n">
+      <c r="E17" s="14" t="n">
         <f aca="false">IF(D17="","",SUM(E16,D17))</f>
         <v>14720</v>
       </c>
@@ -3213,7 +3261,7 @@
         <f aca="false">D17+(D17-D16)+40</f>
         <v>3280</v>
       </c>
-      <c r="E18" s="13" t="n">
+      <c r="E18" s="14" t="n">
         <f aca="false">IF(D18="","",SUM(E17,D18))</f>
         <v>18000</v>
       </c>
@@ -3234,7 +3282,7 @@
         <f aca="false">D18+(D18-D17)+40</f>
         <v>3780</v>
       </c>
-      <c r="E19" s="13" t="n">
+      <c r="E19" s="14" t="n">
         <f aca="false">IF(D19="","",SUM(E18,D19))</f>
         <v>21780</v>
       </c>
@@ -3255,7 +3303,7 @@
         <f aca="false">D19+(D19-D18)+40</f>
         <v>4320</v>
       </c>
-      <c r="E20" s="13" t="n">
+      <c r="E20" s="14" t="n">
         <f aca="false">IF(D20="","",SUM(E19,D20))</f>
         <v>26100</v>
       </c>
@@ -3276,7 +3324,7 @@
         <f aca="false">D20+(D20-D19)+60</f>
         <v>4920</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="14" t="n">
         <f aca="false">IF(D21="","",SUM(E20,D21))</f>
         <v>31020</v>
       </c>
@@ -3297,7 +3345,7 @@
         <f aca="false">D21+(D21-D20)+60</f>
         <v>5580</v>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="14" t="n">
         <f aca="false">IF(D22="","",SUM(E21,D22))</f>
         <v>36600</v>
       </c>
@@ -3318,7 +3366,7 @@
         <f aca="false">D22+(D22-D21)+60</f>
         <v>6300</v>
       </c>
-      <c r="E23" s="13" t="n">
+      <c r="E23" s="14" t="n">
         <f aca="false">IF(D23="","",SUM(E22,D23))</f>
         <v>42900</v>
       </c>
@@ -3339,7 +3387,7 @@
         <f aca="false">D23+(D23-D22)+60</f>
         <v>7080</v>
       </c>
-      <c r="E24" s="13" t="n">
+      <c r="E24" s="14" t="n">
         <f aca="false">IF(D24="","",SUM(E23,D24))</f>
         <v>49980</v>
       </c>
@@ -3360,7 +3408,7 @@
         <f aca="false">D24+(D24-D23)+60</f>
         <v>7920</v>
       </c>
-      <c r="E25" s="13" t="n">
+      <c r="E25" s="14" t="n">
         <f aca="false">IF(D25="","",SUM(E24,D25))</f>
         <v>57900</v>
       </c>
@@ -3381,7 +3429,7 @@
         <f aca="false">D25+(D25-D24)+60</f>
         <v>8820</v>
       </c>
-      <c r="E26" s="13" t="n">
+      <c r="E26" s="14" t="n">
         <f aca="false">IF(D26="","",SUM(E25,D26))</f>
         <v>66720</v>
       </c>
@@ -3402,7 +3450,7 @@
         <f aca="false">D26+(D26-D25)+60</f>
         <v>9780</v>
       </c>
-      <c r="E27" s="13" t="n">
+      <c r="E27" s="14" t="n">
         <f aca="false">IF(D27="","",SUM(E26,D27))</f>
         <v>76500</v>
       </c>
@@ -3423,7 +3471,7 @@
         <f aca="false">D27+(D27-D26)+60</f>
         <v>10800</v>
       </c>
-      <c r="E28" s="13" t="n">
+      <c r="E28" s="14" t="n">
         <f aca="false">IF(D28="","",SUM(E27,D28))</f>
         <v>87300</v>
       </c>
@@ -3444,7 +3492,7 @@
         <f aca="false">D28+(D28-D27)+60</f>
         <v>11880</v>
       </c>
-      <c r="E29" s="13" t="n">
+      <c r="E29" s="14" t="n">
         <f aca="false">IF(D29="","",SUM(E28,D29))</f>
         <v>99180</v>
       </c>
@@ -3465,7 +3513,7 @@
         <f aca="false">D29+(D29-D28)+60</f>
         <v>13020</v>
       </c>
-      <c r="E30" s="13" t="n">
+      <c r="E30" s="14" t="n">
         <f aca="false">IF(D30="","",SUM(E29,D30))</f>
         <v>112200</v>
       </c>
@@ -3486,7 +3534,7 @@
         <f aca="false">D30+(D30-D29)+60</f>
         <v>14220</v>
       </c>
-      <c r="E31" s="13" t="n">
+      <c r="E31" s="14" t="n">
         <f aca="false">IF(D31="","",SUM(E30,D31))</f>
         <v>126420</v>
       </c>
@@ -3507,10 +3555,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:I30"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3528,195 +3576,235 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>102</v>
+      <c r="B5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="B17" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="17" t="s">
-        <v>246</v>
+      <c r="B18" s="18" t="s">
+        <v>247</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="17" t="s">
-        <v>257</v>
+      <c r="B19" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B33:I33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Others/기획서/시스템 기획서_0717.xlsx
+++ b/Others/기획서/시스템 기획서_0717.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="전체 시스템" sheetId="1" state="visible" r:id="rId2"/>
@@ -600,7 +600,7 @@
     <t>경비원</t>
   </si>
   <si>
-    <t>플레이어를 느려지게 만드는 끈끈이 총알을 발사한다</t>
+    <t>플레이어를 30% 느려지게 만드는 끈끈이 총알을 발사한다</t>
   </si>
   <si>
     <t>경비터렛(총) </t>
@@ -612,7 +612,7 @@
     <t>변이된 하급 관리</t>
   </si>
   <si>
-    <t>1. 점프로 공격, 착지한 자리에 충격파가 생긴다. 플레이어가 충격파에 맞으면 데미지를 입고 기절한다.</t>
+    <t>1. 점프로 공격, 착지한 자리에 충격파가 생긴다. 플레이어가 충격파에 맞으면 데미지를 입고 1초 동안 기절한다.</t>
   </si>
   <si>
     <t>2. 플레이어가 있는 방향으로 바위를 던진다. 던져진 바위는 5초 후에 사라지며, 몬스터와 플레이어는 바위를 통과할 수 없다. </t>
@@ -705,7 +705,7 @@
     <t>뚱뚱한 실험체</t>
   </si>
   <si>
-    <t>밟으면 느려지는 침을 뱉는다.</t>
+    <t>밟으면 30% 느려지는 침을 뱉는다.</t>
   </si>
   <si>
     <t>빠른 실험체</t>
@@ -1181,7 +1181,7 @@
   <dimension ref="B1:M123"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C80" activeCellId="1" sqref="B33:I38 C80"/>
+      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1793,7 +1793,7 @@
   <dimension ref="B1:Q10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="B33:I38 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2084,7 +2084,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="B33:I38 E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2275,8 +2275,8 @@
   </sheetPr>
   <dimension ref="B1:Q62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="1" sqref="B33:I38 H7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2887,7 +2887,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="1" sqref="B33:I38 C24"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3557,8 +3557,8 @@
   </sheetPr>
   <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33:I38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
